--- a/WebContent/WEB-INF/DBFolder/知识库管理.xlsx
+++ b/WebContent/WEB-INF/DBFolder/知识库管理.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\workspace\Erudite\WebContent\WEB-INF\DBFolder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="20020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="20025" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="241">
   <si>
     <t>功能号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -690,10 +695,6 @@
   </si>
   <si>
     <t>文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -985,7 +986,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1461,10 +1462,10 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="206" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="206" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
@@ -1473,6 +1474,7 @@
   </cellXfs>
   <cellStyles count="211">
     <cellStyle name="差" xfId="206" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
@@ -1575,113 +1577,112 @@
     <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="205" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="112" builtinId="53"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
     <cellStyle name="输入" xfId="2" builtinId="20"/>
-    <cellStyle name="说明文本" xfId="112" builtinId="53"/>
-    <cellStyle name="无色" xfId="1" builtinId="28"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="注释" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1689,6 +1690,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2018,29 +2022,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="42.83203125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="24.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="29.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="42.875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="24.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="29.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.625" style="2" customWidth="1"/>
     <col min="13" max="13" width="58.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2081,17 +2085,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="16">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2103,7 +2107,7 @@
       <c r="G2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>132</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -2112,18 +2116,18 @@
       <c r="J2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>139</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="2" t="s">
         <v>126</v>
       </c>
@@ -2133,20 +2137,20 @@
       <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="2" t="s">
         <v>135</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="2" t="s">
         <v>125</v>
       </c>
@@ -2156,14 +2160,14 @@
       <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="2" t="s">
         <v>130</v>
       </c>
@@ -2173,20 +2177,20 @@
       <c r="G5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="16">
+      <c r="H5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2198,7 +2202,7 @@
       <c r="G6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>142</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2207,68 +2211,68 @@
       <c r="J6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
+      <c r="K6" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="2" t="s">
         <v>135</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="2" t="s">
         <v>143</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="7" t="s">
         <v>145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" ht="42">
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -2297,23 +2301,23 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1">
-      <c r="A11" s="16">
+    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
         <v>4</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>156</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -2323,15 +2327,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="2" t="s">
         <v>135</v>
       </c>
@@ -2339,15 +2343,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="2" t="s">
         <v>158</v>
       </c>
@@ -2355,17 +2359,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="16">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="15">
         <v>5</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>165</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2375,89 +2379,89 @@
         <v>167</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="H14" s="15"/>
       <c r="I14" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="K14" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="2" t="s">
         <v>135</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" ht="42">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="15"/>
+      <c r="I16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="16">
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
         <v>6</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>133</v>
@@ -2465,68 +2469,68 @@
       <c r="J17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="K17" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="2" t="s">
         <v>135</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="16">
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="15">
         <v>7</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>197</v>
+      <c r="H20" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>133</v>
@@ -2534,57 +2538,57 @@
       <c r="J20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H21" s="16"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="2" t="s">
         <v>135</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="16">
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="15">
         <v>8</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F22" s="16" t="s">
+      <c r="G22" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>196</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>133</v>
@@ -2592,51 +2596,51 @@
       <c r="J22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="2" t="s">
         <v>135</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="16">
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="15">
         <v>9</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="G24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>133</v>
@@ -2644,51 +2648,51 @@
       <c r="J24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="2" t="s">
         <v>135</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="16">
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="15">
         <v>10</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="16" t="s">
+      <c r="G26" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>207</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>133</v>
@@ -2696,55 +2700,55 @@
       <c r="J26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="M26" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="M26" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="2" t="s">
         <v>135</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="16">
+      <c r="K27" s="15"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="15">
         <v>11</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="D28" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>212</v>
+      <c r="H28" s="15" t="s">
+        <v>211</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>133</v>
@@ -2752,149 +2756,128 @@
       <c r="J28" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="2" t="s">
         <v>135</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:13" s="8" customFormat="1" ht="63" customHeight="1">
-      <c r="A30" s="15">
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:13" s="8" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="16">
         <v>12</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="E30" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>227</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>228</v>
       </c>
       <c r="I30" s="8">
         <v>12</v>
       </c>
       <c r="J30" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="8" customFormat="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" s="8" customFormat="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="K32" s="15"/>
+      <c r="K32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
@@ -2911,30 +2894,51 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2956,22 +2960,22 @@
       <selection pane="bottomLeft" activeCell="A24" sqref="A24:K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="14.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
@@ -3013,7 +3017,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3036,7 +3040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -3062,7 +3066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="42">
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -3114,7 +3118,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>93</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>98</v>
       </c>
@@ -3166,7 +3170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>100</v>
       </c>
@@ -3192,7 +3196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="42">
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
@@ -3219,7 +3223,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>104</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>106</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>108</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>109</v>
       </c>
@@ -3311,7 +3315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="42">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>110</v>
       </c>
@@ -3337,7 +3341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="5" customFormat="1">
+    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>43</v>
       </c>
@@ -3349,7 +3353,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -3369,7 +3373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="8" customFormat="1">
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
@@ -3395,7 +3399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -3418,7 +3422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>162</v>
       </c>
@@ -3458,12 +3462,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="11" customFormat="1">
+    <row r="24" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>40</v>
@@ -3476,17 +3480,17 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" s="11" customFormat="1">
+    <row r="25" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>40</v>
@@ -3502,12 +3506,12 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" s="11" customFormat="1">
+    <row r="26" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>40</v>
@@ -3523,7 +3527,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -3546,7 +3550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -3569,7 +3573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -3638,7 +3642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="42">
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -3664,7 +3668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="5" customFormat="1">
+    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
         <v>67</v>
       </c>
@@ -3677,7 +3681,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -3697,7 +3701,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -3723,12 +3727,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="42">
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>41</v>
@@ -3749,27 +3753,27 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="10" customFormat="1">
+    <row r="39" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>216</v>
-      </c>
       <c r="C39" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>82</v>
       </c>
@@ -3792,7 +3796,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
@@ -3838,7 +3842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
@@ -3861,7 +3865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>30</v>
       </c>
@@ -3884,7 +3888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
@@ -3907,7 +3911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="42">
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
@@ -3933,7 +3937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="17" t="s">
         <v>75</v>
       </c>
@@ -3946,7 +3950,7 @@
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
@@ -3966,7 +3970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="8" customFormat="1">
+    <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>83</v>
       </c>
@@ -4012,7 +4016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="8" customFormat="1">
+    <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
         <v>112</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>84</v>
       </c>
@@ -4058,7 +4062,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>26</v>
       </c>
@@ -4081,7 +4085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>28</v>
       </c>
@@ -4104,7 +4108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>30</v>
       </c>
@@ -4127,7 +4131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>32</v>
       </c>
@@ -4150,7 +4154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="42">
+    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>37</v>
       </c>
@@ -4176,7 +4180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="17" t="s">
         <v>87</v>
       </c>
@@ -4189,7 +4193,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>44</v>
       </c>
@@ -4209,7 +4213,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="8" customFormat="1">
+    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
         <v>76</v>
       </c>
@@ -4232,7 +4236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
@@ -4255,7 +4259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>26</v>
       </c>
@@ -4278,7 +4282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>28</v>
       </c>
@@ -4301,7 +4305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>30</v>
       </c>
@@ -4324,7 +4328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>32</v>
       </c>
@@ -4347,7 +4351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="42">
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>37</v>
       </c>

--- a/WebContent/WEB-INF/DBFolder/知识库管理.xlsx
+++ b/WebContent/WEB-INF/DBFolder/知识库管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="0" windowWidth="25520" windowHeight="20020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="249">
   <si>
     <t>功能号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1001,6 +1001,18 @@
   </si>
   <si>
     <t>GetFileListById</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt_path</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件转换为txt后的位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1444,10 +1456,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="206" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="206" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
@@ -2004,7 +2016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
@@ -2026,7 +2038,7 @@
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:13" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2067,17 +2079,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
-      <c r="A2" s="12">
+    <row r="2" spans="1:13">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2089,7 +2101,7 @@
       <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>118</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -2098,18 +2110,18 @@
       <c r="J2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>125</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+    <row r="3" spans="1:13">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="2" t="s">
         <v>112</v>
       </c>
@@ -2119,20 +2131,20 @@
       <c r="G3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="2" t="s">
         <v>121</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" ht="15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="2" t="s">
         <v>111</v>
       </c>
@@ -2142,14 +2154,14 @@
       <c r="G4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="2" t="s">
         <v>116</v>
       </c>
@@ -2159,20 +2171,20 @@
       <c r="G5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="15">
-      <c r="A6" s="12">
+      <c r="H5" s="11"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2184,7 +2196,7 @@
       <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>128</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2193,68 +2205,68 @@
       <c r="J6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="2" t="s">
         <v>121</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="2" t="s">
         <v>129</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
         <v>131</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" ht="45">
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="42">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -2284,22 +2296,22 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="42" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>141</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -2309,15 +2321,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="2" t="s">
         <v>121</v>
       </c>
@@ -2325,15 +2337,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="2" t="s">
         <v>143</v>
       </c>
@@ -2342,16 +2354,16 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>5</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>146</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2363,22 +2375,22 @@
       <c r="G14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="2" t="s">
         <v>119</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2" t="s">
         <v>159</v>
       </c>
@@ -2388,20 +2400,20 @@
       <c r="G15" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="2" t="s">
         <v>121</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="45">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" ht="42">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="2" t="s">
         <v>151</v>
       </c>
@@ -2411,38 +2423,38 @@
       <c r="G16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="2" t="s">
         <v>154</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>6</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>161</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -2451,55 +2463,55 @@
       <c r="J17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="2" t="s">
         <v>121</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="2" t="s">
         <v>162</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="K19" s="12"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>7</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2511,7 +2523,7 @@
       <c r="G20" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>175</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -2520,15 +2532,15 @@
       <c r="J20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="2" t="s">
         <v>169</v>
       </c>
@@ -2538,38 +2550,38 @@
       <c r="G21" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="2" t="s">
         <v>121</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="12"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>8</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>174</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -2578,50 +2590,50 @@
       <c r="J22" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="2" t="s">
         <v>121</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>9</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="11" t="s">
         <v>178</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -2630,50 +2642,50 @@
       <c r="J24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+    <row r="25" spans="1:13">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="2" t="s">
         <v>121</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="12"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>10</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="11" t="s">
         <v>182</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -2682,42 +2694,42 @@
       <c r="J26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="2" t="s">
         <v>121</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="K27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>11</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -2729,7 +2741,7 @@
       <c r="G28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="11" t="s">
         <v>186</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -2738,15 +2750,15 @@
       <c r="J28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="2" t="s">
         <v>187</v>
       </c>
@@ -2756,38 +2768,38 @@
       <c r="G29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="2" t="s">
         <v>121</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:13" s="8" customFormat="1" ht="63" customHeight="1">
-      <c r="A30" s="11">
+      <c r="A30" s="12">
         <v>12</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="12" t="s">
         <v>197</v>
       </c>
       <c r="I30" s="8">
@@ -2796,91 +2808,70 @@
       <c r="J30" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="8" customFormat="1" ht="15">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+    <row r="31" spans="1:13" s="8" customFormat="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="8" t="s">
         <v>199</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="1:13" s="8" customFormat="1" ht="15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" s="8" customFormat="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="8" t="s">
         <v>200</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="K32" s="11"/>
+      <c r="K32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
@@ -2897,30 +2888,51 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2935,11 +2947,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -2957,7 +2969,7 @@
     <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2999,7 +3011,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3022,7 +3034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -3048,7 +3060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -3071,7 +3083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="45">
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="42">
       <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
@@ -3100,7 +3112,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>83</v>
       </c>
@@ -3126,7 +3138,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
@@ -3152,7 +3164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>90</v>
       </c>
@@ -3178,7 +3190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="45">
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="42">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -3205,7 +3217,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
@@ -3228,7 +3240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>96</v>
       </c>
@@ -3251,7 +3263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>98</v>
       </c>
@@ -3274,7 +3286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>99</v>
       </c>
@@ -3297,7 +3309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45">
+    <row r="15" spans="1:11" ht="42">
       <c r="A15" s="2" t="s">
         <v>100</v>
       </c>
@@ -3335,7 +3347,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:9" s="10" customFormat="1" ht="15">
+    <row r="19" spans="1:9" s="10" customFormat="1">
       <c r="A19" s="10" t="s">
         <v>13</v>
       </c>
@@ -3355,7 +3367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="10" customFormat="1" ht="15">
+    <row r="20" spans="1:9" s="10" customFormat="1">
       <c r="A20" s="10" t="s">
         <v>216</v>
       </c>
@@ -3381,7 +3393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="10" customFormat="1" ht="15">
+    <row r="21" spans="1:9" s="10" customFormat="1">
       <c r="A21" s="10" t="s">
         <v>219</v>
       </c>
@@ -3404,7 +3416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="10" customFormat="1" ht="15">
+    <row r="22" spans="1:9" s="10" customFormat="1">
       <c r="A22" s="10" t="s">
         <v>221</v>
       </c>
@@ -3424,7 +3436,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="10" customFormat="1" ht="15">
+    <row r="23" spans="1:9" s="10" customFormat="1">
       <c r="A23" s="10" t="s">
         <v>223</v>
       </c>
@@ -3444,43 +3456,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="10" customFormat="1" ht="15">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:9" s="9" customFormat="1" ht="42">
+      <c r="A24" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="10" customFormat="1" ht="42">
+      <c r="A25" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="D24" s="10">
-        <v>255</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="10" customFormat="1" ht="15">
-      <c r="A25" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="D25" s="10">
         <v>255</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="10" customFormat="1" ht="15">
+      <c r="I25" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="10" customFormat="1">
       <c r="A26" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>40</v>
@@ -3489,87 +3501,78 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="9" customFormat="1">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:9" s="10" customFormat="1">
+      <c r="A27" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="9" customFormat="1">
+      <c r="A28" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>1</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="2">
-        <v>17</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="2">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>18</v>
@@ -3581,21 +3584,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="2">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>18</v>
@@ -3604,18 +3607,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="2">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>19</v>
@@ -3627,218 +3630,218 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="45">
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2">
+        <v>255</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="42">
+      <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <v>0</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1">
-      <c r="A36" s="13" t="s">
+      <c r="F34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1">
+      <c r="A37" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" ht="15">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15">
-      <c r="A38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="2">
-        <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="2">
+        <v>20</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="45">
-      <c r="A39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="2">
-        <v>255</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="42">
+      <c r="A40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2">
+        <v>255</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="10" customFormat="1" ht="15">
-      <c r="A40" s="10" t="s">
+    <row r="41" spans="1:9" s="10" customFormat="1">
+      <c r="A41" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B41" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15">
-      <c r="A41" s="2" t="s">
+      <c r="F41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D42" s="2">
         <v>255</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D43" s="2">
         <v>20</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="2">
-        <v>17</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15">
-      <c r="A44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="2">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>18</v>
@@ -3850,21 +3853,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D45" s="2">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>18</v>
@@ -3873,18 +3876,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="2">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>19</v>
@@ -3896,192 +3899,192 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="45">
+    <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="2">
+        <v>255</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="42">
+      <c r="A48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D48" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E48" s="2">
         <v>0</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="13" t="s">
+      <c r="F48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" ht="15">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="10" customFormat="1" ht="15">
-      <c r="A53" s="10" t="s">
+    <row r="54" spans="1:9" s="10" customFormat="1">
+      <c r="A54" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D54" s="10">
         <v>32</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15">
-      <c r="A54" s="2" t="s">
+      <c r="F54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D55" s="2">
         <v>255</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="10" customFormat="1" ht="15">
-      <c r="A55" s="10" t="s">
+    <row r="56" spans="1:9" s="10" customFormat="1">
+      <c r="A56" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D56" s="10">
         <v>255</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15">
-      <c r="A56" s="2" t="s">
+      <c r="G56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D57" s="2">
         <v>255</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:9">
+      <c r="A58" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="2">
-        <v>17</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15">
-      <c r="A58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="2">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>18</v>
@@ -4093,21 +4096,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="2">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>18</v>
@@ -4116,18 +4119,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D60" s="2">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>19</v>
@@ -4139,146 +4142,146 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="45">
+    <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="2">
+        <v>255</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="42">
+      <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D62" s="2">
         <v>1</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E62" s="2">
         <v>0</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15">
-      <c r="A65" s="13" t="s">
+      <c r="F62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-    </row>
-    <row r="66" spans="1:9" ht="15">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="10" customFormat="1" ht="15">
-      <c r="A67" s="10" t="s">
+    <row r="68" spans="1:9" s="10" customFormat="1">
+      <c r="A68" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B68" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>32</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F68" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G68" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H68" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:9">
+      <c r="A69" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D69" s="2">
         <v>20</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:9">
+      <c r="A70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" s="2">
-        <v>17</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15">
-      <c r="A70" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="2">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>18</v>
@@ -4290,21 +4293,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="2">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>18</v>
@@ -4313,18 +4316,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="2">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>19</v>
@@ -4336,29 +4339,52 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="45">
+    <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="2">
+        <v>255</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="42">
+      <c r="A74" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D74" s="2">
         <v>1</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E74" s="2">
         <v>0</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="2" t="s">
+      <c r="F74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4366,9 +4392,9 @@
   <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A66:I66"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
